--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACIONES\choucair_utest_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BBBE4-D3B3-4FE5-AD72-278640C519B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD4C2C4-C055-405A-9B48-62C8D3576C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20490" windowHeight="7815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominios" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>PassWord</t>
   </si>
   <si>
-    <t>Prueba@yopmail.com</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -52,70 +49,73 @@
     <t>EmailAddress</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>050005</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>MyComputer</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>MyPhone</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Galaxy S8+</t>
+  </si>
+  <si>
+    <t>OSPhone</t>
+  </si>
+  <si>
+    <t>Android 10</t>
+  </si>
+  <si>
+    <t>A1q2w3e4r5t6</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Begin uTest Academy</t>
+  </si>
+  <si>
     <t>LastNameTest</t>
   </si>
   <si>
     <t>NameTest</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Medellin</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>050005</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>MyComputer</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>MyPhone</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Galaxy S8+</t>
-  </si>
-  <si>
-    <t>OSPhone</t>
-  </si>
-  <si>
-    <t>Android 10</t>
-  </si>
-  <si>
-    <t>A1q2w3e4r5t6</t>
-  </si>
-  <si>
-    <t>Validate</t>
-  </si>
-  <si>
-    <t>Begin uTest Academy</t>
+    <t>Pruebas@puebatest.com</t>
   </si>
 </sst>
 </file>
@@ -160,12 +160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -466,7 +467,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +484,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,94 +504,97 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2B2BD545-73C8-429D-AE95-8FAFB8947E83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>